--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="10830" windowHeight="5445" tabRatio="847" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="10830" windowHeight="5445" tabRatio="847" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="UGT1A1" sheetId="19" r:id="rId18"/>
     <sheet name="VKORC1" sheetId="20" r:id="rId19"/>
     <sheet name="G6PD" sheetId="21" r:id="rId20"/>
+    <sheet name="Hoja1" sheetId="22" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="ABCB1_haplotypes" localSheetId="0">ABCB1!$D$1:$J$6</definedName>
@@ -50,7 +51,7 @@
     <definedName name="UGT1A1_haplotypes" localSheetId="17">UGT1A1!$D$1:$M$40</definedName>
     <definedName name="VKORC1_haplotypes" localSheetId="18">VKORC1!$D$1:$N$14</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -459,7 +460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9720" uniqueCount="501">
   <si>
     <t>haplotype</t>
   </si>
@@ -1967,8 +1968,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2094,7 +2095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2168,7 +2169,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2203,7 +2203,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2379,14 +2378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
@@ -2395,7 +2394,7 @@
     <col min="11" max="11" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>477</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>500</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -2511,7 +2510,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>477</v>
       </c>
@@ -2537,7 +2539,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>477</v>
       </c>
@@ -2569,12 +2574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2584,7 +2591,7 @@
     <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>496</v>
       </c>
@@ -2666,7 +2673,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>496</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>496</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>496</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>496</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>496</v>
       </c>
@@ -2856,7 +2866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>496</v>
       </c>
@@ -2894,7 +2904,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
       <c r="B9" t="s">
         <v>496</v>
       </c>
@@ -2932,7 +2945,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>496</v>
       </c>
@@ -2970,7 +2986,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>496</v>
       </c>
@@ -3008,7 +3027,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>496</v>
       </c>
@@ -3052,12 +3074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -3067,7 +3091,7 @@
     <col min="10" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -3117,7 +3141,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>486</v>
       </c>
@@ -3161,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>486</v>
       </c>
@@ -3208,7 +3232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>486</v>
       </c>
@@ -3255,7 +3279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>486</v>
       </c>
@@ -3302,7 +3326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>486</v>
       </c>
@@ -3349,7 +3373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" t="s">
         <v>486</v>
       </c>
@@ -3396,7 +3420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" t="s">
         <v>486</v>
       </c>
@@ -3443,7 +3467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="B9" t="s">
         <v>486</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="B10" t="s">
         <v>486</v>
       </c>
@@ -3537,7 +3561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" t="s">
         <v>486</v>
       </c>
@@ -3584,7 +3608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" t="s">
         <v>486</v>
       </c>
@@ -3631,7 +3655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" t="s">
         <v>486</v>
       </c>
@@ -3678,7 +3702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>486</v>
       </c>
@@ -3725,7 +3749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>486</v>
       </c>
@@ -3772,7 +3796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="B16" t="s">
         <v>486</v>
       </c>
@@ -3819,7 +3843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="B17" t="s">
         <v>486</v>
       </c>
@@ -3866,7 +3890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="B18" t="s">
         <v>486</v>
       </c>
@@ -3913,7 +3937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" t="s">
         <v>486</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="B20" t="s">
         <v>486</v>
       </c>
@@ -4007,7 +4031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="B21" t="s">
         <v>486</v>
       </c>
@@ -4051,7 +4075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="B22" t="s">
         <v>486</v>
       </c>
@@ -4095,7 +4119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" t="s">
         <v>486</v>
       </c>
@@ -4139,7 +4163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="B24" t="s">
         <v>486</v>
       </c>
@@ -4183,7 +4207,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>500</v>
+      </c>
       <c r="B25" t="s">
         <v>486</v>
       </c>
@@ -4227,7 +4254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="B26" t="s">
         <v>486</v>
       </c>
@@ -4271,7 +4298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="B27" t="s">
         <v>486</v>
       </c>
@@ -4315,7 +4342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="B28" t="s">
         <v>486</v>
       </c>
@@ -4359,7 +4386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="B29" t="s">
         <v>486</v>
       </c>
@@ -4403,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="B30" t="s">
         <v>486</v>
       </c>
@@ -4447,7 +4474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="B31" t="s">
         <v>486</v>
       </c>
@@ -4491,7 +4518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="B32" t="s">
         <v>486</v>
       </c>
@@ -4535,7 +4562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>486</v>
       </c>
@@ -4579,7 +4606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>486</v>
       </c>
@@ -4623,7 +4650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="B35" t="s">
         <v>486</v>
       </c>
@@ -4670,7 +4697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>486</v>
       </c>
@@ -4717,7 +4744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="B37" t="s">
         <v>486</v>
       </c>
@@ -4761,7 +4788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
         <v>486</v>
       </c>
@@ -4808,7 +4835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" t="s">
         <v>486</v>
       </c>
@@ -4855,7 +4882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>486</v>
       </c>
@@ -4899,7 +4926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>486</v>
       </c>
@@ -4943,7 +4970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>486</v>
       </c>
@@ -4990,7 +5017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>486</v>
       </c>
@@ -5037,7 +5064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>486</v>
       </c>
@@ -5081,7 +5108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>486</v>
       </c>
@@ -5131,12 +5158,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -5145,7 +5172,7 @@
     <col min="13" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -5201,7 +5228,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>487</v>
       </c>
@@ -5251,7 +5278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>487</v>
       </c>
@@ -5304,7 +5331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>487</v>
       </c>
@@ -5357,7 +5384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>487</v>
       </c>
@@ -5407,7 +5434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>487</v>
       </c>
@@ -5457,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>487</v>
       </c>
@@ -5507,7 +5534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>487</v>
       </c>
@@ -5557,7 +5584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>487</v>
       </c>
@@ -5607,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>487</v>
       </c>
@@ -5657,7 +5684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>487</v>
       </c>
@@ -5710,7 +5737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>487</v>
       </c>
@@ -5763,7 +5790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
         <v>487</v>
       </c>
@@ -5813,7 +5840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>487</v>
       </c>
@@ -5863,7 +5890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>487</v>
       </c>
@@ -5913,7 +5940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>487</v>
       </c>
@@ -5969,12 +5996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -5982,7 +6011,7 @@
     <col min="9" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -6029,7 +6058,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
       <c r="B2" t="s">
         <v>488</v>
       </c>
@@ -6070,7 +6102,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>488</v>
       </c>
@@ -6117,14 +6152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -6132,7 +6167,7 @@
     <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -6158,7 +6193,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>489</v>
       </c>
@@ -6178,7 +6213,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>489</v>
       </c>
@@ -6204,12 +6242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -6222,7 +6260,7 @@
     <col min="18" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -6311,7 +6349,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="B2" t="s">
         <v>490</v>
       </c>
@@ -6397,7 +6435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="B3" t="s">
         <v>490</v>
       </c>
@@ -6483,7 +6521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="B4" t="s">
         <v>490</v>
       </c>
@@ -6569,7 +6607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="B5" t="s">
         <v>490</v>
       </c>
@@ -6652,7 +6690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="B6" t="s">
         <v>490</v>
       </c>
@@ -6735,7 +6773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="B7" t="s">
         <v>490</v>
       </c>
@@ -6818,7 +6856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="B8" t="s">
         <v>490</v>
       </c>
@@ -6901,7 +6939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="B9" t="s">
         <v>490</v>
       </c>
@@ -6984,7 +7022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="B10" t="s">
         <v>490</v>
       </c>
@@ -7067,7 +7105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="B11" t="s">
         <v>490</v>
       </c>
@@ -7150,7 +7188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="B12" t="s">
         <v>490</v>
       </c>
@@ -7233,7 +7271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="B13" t="s">
         <v>490</v>
       </c>
@@ -7316,7 +7354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="B14" t="s">
         <v>490</v>
       </c>
@@ -7399,7 +7437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="B15" t="s">
         <v>490</v>
       </c>
@@ -7482,7 +7520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="B16" t="s">
         <v>490</v>
       </c>
@@ -7565,7 +7603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29">
       <c r="B17" t="s">
         <v>490</v>
       </c>
@@ -7648,7 +7686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29">
       <c r="B18" t="s">
         <v>490</v>
       </c>
@@ -7731,7 +7769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29">
       <c r="B19" t="s">
         <v>490</v>
       </c>
@@ -7814,7 +7852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29">
       <c r="B20" t="s">
         <v>490</v>
       </c>
@@ -7897,7 +7935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29">
       <c r="B21" t="s">
         <v>490</v>
       </c>
@@ -7977,7 +8015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29">
       <c r="B22" t="s">
         <v>490</v>
       </c>
@@ -8057,7 +8095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29">
       <c r="B23" t="s">
         <v>490</v>
       </c>
@@ -8137,7 +8175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29">
       <c r="B24" t="s">
         <v>490</v>
       </c>
@@ -8217,7 +8255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29">
       <c r="B25" t="s">
         <v>490</v>
       </c>
@@ -8297,7 +8335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29">
       <c r="B26" t="s">
         <v>490</v>
       </c>
@@ -8377,7 +8415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29">
       <c r="B27" t="s">
         <v>490</v>
       </c>
@@ -8457,7 +8495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29">
       <c r="B28" t="s">
         <v>490</v>
       </c>
@@ -8537,7 +8575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29">
       <c r="B29" t="s">
         <v>490</v>
       </c>
@@ -8617,7 +8655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29">
       <c r="B30" t="s">
         <v>490</v>
       </c>
@@ -8697,7 +8735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29">
       <c r="B31" t="s">
         <v>490</v>
       </c>
@@ -8777,7 +8815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29">
       <c r="B32" t="s">
         <v>490</v>
       </c>
@@ -8857,7 +8895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29">
       <c r="B33" t="s">
         <v>490</v>
       </c>
@@ -8937,7 +8975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29">
       <c r="B34" t="s">
         <v>490</v>
       </c>
@@ -9017,7 +9055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29">
       <c r="B35" t="s">
         <v>490</v>
       </c>
@@ -9103,14 +9141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -9119,7 +9157,7 @@
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -9142,7 +9180,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>491</v>
       </c>
@@ -9159,7 +9197,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>491</v>
       </c>
@@ -9176,7 +9217,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
       <c r="B4" t="s">
         <v>491</v>
       </c>
@@ -9193,7 +9237,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>491</v>
       </c>
@@ -9216,21 +9263,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -9256,7 +9303,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>492</v>
       </c>
@@ -9276,7 +9323,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>492</v>
       </c>
@@ -9296,7 +9346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -9322,7 +9372,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>492</v>
       </c>
@@ -9345,7 +9398,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>492</v>
       </c>
@@ -9368,7 +9424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>500</v>
       </c>
@@ -9394,7 +9450,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
       <c r="B8" t="s">
         <v>492</v>
       </c>
@@ -9414,7 +9473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>492</v>
       </c>
@@ -9434,7 +9493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>492</v>
       </c>
@@ -9454,7 +9513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>492</v>
       </c>
@@ -9474,7 +9533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>492</v>
       </c>
@@ -9494,7 +9553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>492</v>
       </c>
@@ -9514,7 +9573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>492</v>
       </c>
@@ -9534,7 +9593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>492</v>
       </c>
@@ -9554,7 +9613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>492</v>
       </c>
@@ -9574,7 +9633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>492</v>
       </c>
@@ -9594,7 +9653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>492</v>
       </c>
@@ -9614,7 +9673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>492</v>
       </c>
@@ -9634,7 +9693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>492</v>
       </c>
@@ -9654,7 +9713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>492</v>
       </c>
@@ -9674,7 +9733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>492</v>
       </c>
@@ -9694,7 +9753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" t="s">
         <v>492</v>
       </c>
@@ -9714,7 +9773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
         <v>492</v>
       </c>
@@ -9734,7 +9793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" t="s">
         <v>492</v>
       </c>
@@ -9754,7 +9813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>492</v>
       </c>
@@ -9774,7 +9833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>492</v>
       </c>
@@ -9797,7 +9856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" t="s">
         <v>492</v>
       </c>
@@ -9820,7 +9879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
         <v>492</v>
       </c>
@@ -9843,7 +9902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" t="s">
         <v>492</v>
       </c>
@@ -9872,14 +9931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -9888,7 +9947,7 @@
     <col min="12" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>476</v>
       </c>
@@ -9926,7 +9985,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>493</v>
       </c>
@@ -9964,7 +10023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>493</v>
       </c>
@@ -10002,7 +10061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>493</v>
       </c>
@@ -10040,7 +10099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>493</v>
       </c>
@@ -10075,7 +10134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>493</v>
       </c>
@@ -10113,7 +10172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>493</v>
       </c>
@@ -10151,7 +10210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>493</v>
       </c>
@@ -10189,7 +10248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>493</v>
       </c>
@@ -10227,7 +10286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>493</v>
       </c>
@@ -10265,7 +10324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>493</v>
       </c>
@@ -10303,7 +10362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>493</v>
       </c>
@@ -10341,7 +10400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>493</v>
       </c>
@@ -10379,7 +10438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>493</v>
       </c>
@@ -10417,7 +10476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>493</v>
       </c>
@@ -10455,7 +10514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>493</v>
       </c>
@@ -10493,7 +10552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
         <v>493</v>
       </c>
@@ -10531,7 +10590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
         <v>493</v>
       </c>
@@ -10569,7 +10628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="B19" t="s">
         <v>493</v>
       </c>
@@ -10607,7 +10666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
         <v>493</v>
       </c>
@@ -10645,7 +10704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="B21" t="s">
         <v>493</v>
       </c>
@@ -10683,7 +10742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
         <v>493</v>
       </c>
@@ -10721,7 +10780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>493</v>
       </c>
@@ -10759,7 +10818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>493</v>
       </c>
@@ -10794,7 +10853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>493</v>
       </c>
@@ -10829,7 +10888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>499</v>
       </c>
@@ -10867,7 +10926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>493</v>
       </c>
@@ -10902,7 +10961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
         <v>493</v>
       </c>
@@ -10940,7 +10999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>493</v>
       </c>
@@ -10978,7 +11037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>493</v>
       </c>
@@ -11016,7 +11075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>493</v>
       </c>
@@ -11051,7 +11110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
         <v>493</v>
       </c>
@@ -11086,7 +11145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>493</v>
       </c>
@@ -11121,7 +11180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>493</v>
       </c>
@@ -11156,7 +11215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>493</v>
       </c>
@@ -11191,7 +11250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>493</v>
       </c>
@@ -11226,7 +11285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>493</v>
       </c>
@@ -11261,7 +11320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>493</v>
       </c>
@@ -11296,7 +11355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>493</v>
       </c>
@@ -11331,7 +11390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>493</v>
       </c>
@@ -11372,12 +11431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -11387,7 +11448,7 @@
     <col min="12" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -11431,7 +11492,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>494</v>
       </c>
@@ -11454,7 +11515,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>494</v>
       </c>
@@ -11477,7 +11541,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
       <c r="B4" t="s">
         <v>494</v>
       </c>
@@ -11500,7 +11567,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>494</v>
       </c>
@@ -11523,7 +11593,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>494</v>
       </c>
@@ -11561,7 +11634,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
       <c r="B7" t="s">
         <v>494</v>
       </c>
@@ -11599,7 +11675,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
       <c r="B8" t="s">
         <v>494</v>
       </c>
@@ -11637,7 +11716,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
       <c r="B9" t="s">
         <v>494</v>
       </c>
@@ -11675,7 +11757,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>494</v>
       </c>
@@ -11713,7 +11798,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>494</v>
       </c>
@@ -11751,7 +11839,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>494</v>
       </c>
@@ -11789,7 +11880,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
       <c r="B13" t="s">
         <v>494</v>
       </c>
@@ -11827,7 +11921,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>500</v>
+      </c>
       <c r="B14" t="s">
         <v>494</v>
       </c>
@@ -11871,19 +11968,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -11903,7 +12000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>478</v>
       </c>
@@ -11917,7 +12014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>478</v>
       </c>
@@ -11931,7 +12028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>478</v>
       </c>
@@ -11951,14 +12048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
@@ -11968,7 +12065,7 @@
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -12000,7 +12097,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
       <c r="B2" t="s">
         <v>495</v>
       </c>
@@ -12026,7 +12126,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>495</v>
       </c>
@@ -12052,7 +12155,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
       <c r="B4" t="s">
         <v>495</v>
       </c>
@@ -12078,7 +12184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>495</v>
       </c>
@@ -12104,7 +12210,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>495</v>
       </c>
@@ -12135,13 +12244,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -12153,7 +12276,7 @@
     <col min="18" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -12215,7 +12338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>479</v>
       </c>
@@ -12271,7 +12394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="B3" t="s">
         <v>479</v>
       </c>
@@ -12327,7 +12450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" t="s">
         <v>479</v>
       </c>
@@ -12383,7 +12506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" t="s">
         <v>479</v>
       </c>
@@ -12439,7 +12562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" t="s">
         <v>479</v>
       </c>
@@ -12495,7 +12618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" t="s">
         <v>479</v>
       </c>
@@ -12551,7 +12674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8" t="s">
         <v>479</v>
       </c>
@@ -12607,7 +12730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="B9" t="s">
         <v>479</v>
       </c>
@@ -12663,7 +12786,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>479</v>
       </c>
@@ -12719,7 +12845,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>479</v>
       </c>
@@ -12775,7 +12904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="B12" t="s">
         <v>479</v>
       </c>
@@ -12831,7 +12960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13" t="s">
         <v>479</v>
       </c>
@@ -12887,7 +13016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="B14" t="s">
         <v>479</v>
       </c>
@@ -12943,7 +13072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="B15" t="s">
         <v>479</v>
       </c>
@@ -12999,7 +13128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" t="s">
         <v>479</v>
       </c>
@@ -13061,19 +13190,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -13099,7 +13228,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>480</v>
       </c>
@@ -13119,7 +13248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>480</v>
       </c>
@@ -13139,7 +13268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>480</v>
       </c>
@@ -13165,12 +13294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -13180,7 +13311,7 @@
     <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -13254,7 +13385,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
         <v>481</v>
       </c>
@@ -13325,7 +13456,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>481</v>
       </c>
@@ -13396,7 +13530,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
       <c r="B4" t="s">
         <v>481</v>
       </c>
@@ -13467,7 +13604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="B5" t="s">
         <v>481</v>
       </c>
@@ -13538,7 +13675,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>481</v>
       </c>
@@ -13609,7 +13749,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
       <c r="B7" t="s">
         <v>481</v>
       </c>
@@ -13680,7 +13823,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
       <c r="B8" t="s">
         <v>481</v>
       </c>
@@ -13751,7 +13897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" t="s">
         <v>481</v>
       </c>
@@ -13822,7 +13968,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>481</v>
       </c>
@@ -13893,7 +14042,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>481</v>
       </c>
@@ -13964,7 +14116,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>481</v>
       </c>
@@ -14032,7 +14187,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
       <c r="B13" t="s">
         <v>481</v>
       </c>
@@ -14100,7 +14258,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>500</v>
+      </c>
       <c r="B14" t="s">
         <v>481</v>
       </c>
@@ -14168,7 +14329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" t="s">
         <v>481</v>
       </c>
@@ -14236,7 +14397,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
       <c r="B16" t="s">
         <v>481</v>
       </c>
@@ -14304,7 +14468,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>500</v>
+      </c>
       <c r="B17" t="s">
         <v>481</v>
       </c>
@@ -14372,7 +14539,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>500</v>
+      </c>
       <c r="B18" t="s">
         <v>481</v>
       </c>
@@ -14440,7 +14610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="B19" t="s">
         <v>481</v>
       </c>
@@ -14508,7 +14678,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>500</v>
+      </c>
       <c r="B20" t="s">
         <v>481</v>
       </c>
@@ -14576,7 +14749,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>500</v>
+      </c>
       <c r="B21" t="s">
         <v>481</v>
       </c>
@@ -14644,7 +14820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="B22" t="s">
         <v>481</v>
       </c>
@@ -14712,7 +14888,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
       <c r="B23" t="s">
         <v>481</v>
       </c>
@@ -14780,7 +14959,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
       <c r="B24" t="s">
         <v>481</v>
       </c>
@@ -14848,7 +15030,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>500</v>
+      </c>
       <c r="B25" t="s">
         <v>481</v>
       </c>
@@ -14916,7 +15101,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>500</v>
+      </c>
       <c r="B26" t="s">
         <v>481</v>
       </c>
@@ -14984,7 +15172,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>500</v>
+      </c>
       <c r="B27" t="s">
         <v>481</v>
       </c>
@@ -15052,7 +15243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="B28" t="s">
         <v>481</v>
       </c>
@@ -15120,7 +15311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="B29" t="s">
         <v>481</v>
       </c>
@@ -15188,7 +15379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="B30" t="s">
         <v>481</v>
       </c>
@@ -15256,7 +15447,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>500</v>
+      </c>
       <c r="B31" t="s">
         <v>481</v>
       </c>
@@ -15330,14 +15524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -15346,7 +15540,10 @@
     <col min="12" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
       <c r="B1" t="s">
         <v>476</v>
       </c>
@@ -15387,7 +15584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>482</v>
       </c>
@@ -15428,7 +15625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>482</v>
       </c>
@@ -15469,7 +15666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>482</v>
       </c>
@@ -15510,7 +15707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>482</v>
       </c>
@@ -15551,7 +15748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>482</v>
       </c>
@@ -15592,7 +15789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>482</v>
       </c>
@@ -15633,7 +15830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>482</v>
       </c>
@@ -15674,7 +15871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
         <v>482</v>
       </c>
@@ -15715,7 +15912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
         <v>482</v>
       </c>
@@ -15756,7 +15953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
         <v>482</v>
       </c>
@@ -15797,7 +15994,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>482</v>
       </c>
@@ -15835,7 +16035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
         <v>482</v>
       </c>
@@ -15873,7 +16073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
         <v>482</v>
       </c>
@@ -15914,7 +16114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>482</v>
       </c>
@@ -15955,7 +16155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
         <v>482</v>
       </c>
@@ -15996,7 +16196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="B17" t="s">
         <v>482</v>
       </c>
@@ -16037,7 +16237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="B18" t="s">
         <v>482</v>
       </c>
@@ -16078,7 +16278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="B19" t="s">
         <v>482</v>
       </c>
@@ -16119,7 +16319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="B20" t="s">
         <v>482</v>
       </c>
@@ -16160,7 +16360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="B21" t="s">
         <v>482</v>
       </c>
@@ -16201,7 +16401,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>500</v>
+      </c>
       <c r="B22" t="s">
         <v>482</v>
       </c>
@@ -16239,7 +16442,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
       <c r="B23" t="s">
         <v>482</v>
       </c>
@@ -16277,7 +16483,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
       <c r="B24" t="s">
         <v>482</v>
       </c>
@@ -16315,7 +16524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="B25" t="s">
         <v>482</v>
       </c>
@@ -16353,7 +16562,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>500</v>
+      </c>
       <c r="B26" t="s">
         <v>482</v>
       </c>
@@ -16394,7 +16606,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>500</v>
+      </c>
       <c r="B27" t="s">
         <v>482</v>
       </c>
@@ -16435,7 +16650,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>500</v>
+      </c>
       <c r="B28" t="s">
         <v>482</v>
       </c>
@@ -16473,7 +16691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="B29" t="s">
         <v>482</v>
       </c>
@@ -16511,7 +16729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="B30" t="s">
         <v>482</v>
       </c>
@@ -16552,7 +16770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="B31" t="s">
         <v>482</v>
       </c>
@@ -16593,7 +16811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="B32" t="s">
         <v>482</v>
       </c>
@@ -16634,7 +16852,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>500</v>
+      </c>
       <c r="B33" t="s">
         <v>482</v>
       </c>
@@ -16672,7 +16893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="B34" t="s">
         <v>482</v>
       </c>
@@ -16710,7 +16931,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>500</v>
+      </c>
       <c r="B35" t="s">
         <v>482</v>
       </c>
@@ -16748,7 +16972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="B36" t="s">
         <v>482</v>
       </c>
@@ -16786,7 +17010,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>500</v>
+      </c>
       <c r="B37" t="s">
         <v>482</v>
       </c>
@@ -16824,7 +17051,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>500</v>
+      </c>
       <c r="B38" t="s">
         <v>482</v>
       </c>
@@ -16865,7 +17095,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>500</v>
+      </c>
       <c r="B39" t="s">
         <v>482</v>
       </c>
@@ -16906,9 +17139,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B40" t="s">
         <v>482</v>
@@ -16950,7 +17183,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>500</v>
+      </c>
       <c r="B41" t="s">
         <v>482</v>
       </c>
@@ -16988,7 +17224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="B42" t="s">
         <v>482</v>
       </c>
@@ -17026,7 +17262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="B43" t="s">
         <v>482</v>
       </c>
@@ -17064,7 +17300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" t="s">
         <v>482</v>
       </c>
@@ -17102,7 +17338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="B45" t="s">
         <v>482</v>
       </c>
@@ -17140,7 +17376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="B46" t="s">
         <v>482</v>
       </c>
@@ -17178,7 +17414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="B47" t="s">
         <v>482</v>
       </c>
@@ -17216,7 +17452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="B48" t="s">
         <v>482</v>
       </c>
@@ -17254,7 +17490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
         <v>482</v>
       </c>
@@ -17292,7 +17528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
         <v>482</v>
       </c>
@@ -17330,7 +17566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14">
       <c r="B51" t="s">
         <v>482</v>
       </c>
@@ -17368,7 +17604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14">
       <c r="B52" t="s">
         <v>482</v>
       </c>
@@ -17406,7 +17642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14">
       <c r="B53" t="s">
         <v>482</v>
       </c>
@@ -17444,7 +17680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14">
       <c r="B54" t="s">
         <v>482</v>
       </c>
@@ -17482,7 +17718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
         <v>482</v>
       </c>
@@ -17520,7 +17756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14">
       <c r="B56" t="s">
         <v>482</v>
       </c>
@@ -17558,7 +17794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
         <v>482</v>
       </c>
@@ -17596,7 +17832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
         <v>482</v>
       </c>
@@ -17634,7 +17870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14">
       <c r="B59" t="s">
         <v>482</v>
       </c>
@@ -17672,7 +17908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14">
       <c r="B60" t="s">
         <v>482</v>
       </c>
@@ -17710,7 +17946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14">
       <c r="B61" t="s">
         <v>482</v>
       </c>
@@ -17748,7 +17984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14">
       <c r="B62" t="s">
         <v>482</v>
       </c>
@@ -17786,7 +18022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14">
       <c r="B63" t="s">
         <v>482</v>
       </c>
@@ -17824,7 +18060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14">
       <c r="B64" t="s">
         <v>482</v>
       </c>
@@ -17862,7 +18098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14">
       <c r="B65" t="s">
         <v>482</v>
       </c>
@@ -17903,7 +18139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14">
       <c r="B66" t="s">
         <v>482</v>
       </c>
@@ -17944,7 +18180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14">
       <c r="B67" t="s">
         <v>482</v>
       </c>
@@ -17982,7 +18218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14">
       <c r="B68" t="s">
         <v>482</v>
       </c>
@@ -18020,7 +18256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14">
       <c r="B69" t="s">
         <v>482</v>
       </c>
@@ -18058,7 +18294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14">
       <c r="B70" t="s">
         <v>482</v>
       </c>
@@ -18099,7 +18335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14">
       <c r="B71" t="s">
         <v>482</v>
       </c>
@@ -18140,7 +18376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14">
       <c r="B72" t="s">
         <v>482</v>
       </c>
@@ -18181,7 +18417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14">
       <c r="B73" t="s">
         <v>482</v>
       </c>
@@ -18222,7 +18458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14">
       <c r="B74" t="s">
         <v>482</v>
       </c>
@@ -18260,7 +18496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14">
       <c r="B75" t="s">
         <v>482</v>
       </c>
@@ -18301,7 +18537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14">
       <c r="B76" t="s">
         <v>482</v>
       </c>
@@ -18342,7 +18578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14">
       <c r="B77" t="s">
         <v>482</v>
       </c>
@@ -18380,7 +18616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14">
       <c r="B78" t="s">
         <v>482</v>
       </c>
@@ -18424,12 +18660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
@@ -18443,7 +18681,7 @@
     <col min="36" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -18565,7 +18803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40">
       <c r="B2" t="s">
         <v>483</v>
       </c>
@@ -18681,7 +18919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="B3" t="s">
         <v>483</v>
       </c>
@@ -18800,7 +19038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="B4" t="s">
         <v>483</v>
       </c>
@@ -18919,7 +19157,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>483</v>
       </c>
@@ -19038,7 +19279,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>483</v>
       </c>
@@ -19157,7 +19401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="B7" t="s">
         <v>483</v>
       </c>
@@ -19276,7 +19520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="B8" t="s">
         <v>483</v>
       </c>
@@ -19395,7 +19639,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
       <c r="B9" t="s">
         <v>483</v>
       </c>
@@ -19514,7 +19761,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>483</v>
       </c>
@@ -19633,7 +19883,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>483</v>
       </c>
@@ -19752,7 +20005,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>483</v>
       </c>
@@ -19871,7 +20127,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
       <c r="B13" t="s">
         <v>483</v>
       </c>
@@ -19990,7 +20249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40">
       <c r="B14" t="s">
         <v>483</v>
       </c>
@@ -20109,7 +20368,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>500</v>
+      </c>
       <c r="B15" t="s">
         <v>483</v>
       </c>
@@ -20228,7 +20490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40">
       <c r="B16" t="s">
         <v>483</v>
       </c>
@@ -20344,7 +20606,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40">
+      <c r="A17" t="s">
+        <v>500</v>
+      </c>
       <c r="B17" t="s">
         <v>483</v>
       </c>
@@ -20463,7 +20728,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40">
+      <c r="A18" t="s">
+        <v>500</v>
+      </c>
       <c r="B18" t="s">
         <v>483</v>
       </c>
@@ -20582,7 +20850,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
       <c r="B19" t="s">
         <v>483</v>
       </c>
@@ -20698,7 +20969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40">
       <c r="B20" t="s">
         <v>483</v>
       </c>
@@ -20814,7 +21085,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40">
+      <c r="A21" t="s">
+        <v>500</v>
+      </c>
       <c r="B21" t="s">
         <v>483</v>
       </c>
@@ -20933,7 +21207,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40">
+      <c r="A22" t="s">
+        <v>500</v>
+      </c>
       <c r="B22" t="s">
         <v>483</v>
       </c>
@@ -21052,7 +21329,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
       <c r="B23" t="s">
         <v>483</v>
       </c>
@@ -21171,7 +21451,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
       <c r="B24" t="s">
         <v>483</v>
       </c>
@@ -21290,7 +21573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40">
       <c r="B25" t="s">
         <v>483</v>
       </c>
@@ -21406,7 +21689,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40">
+      <c r="A26" t="s">
+        <v>500</v>
+      </c>
       <c r="B26" t="s">
         <v>483</v>
       </c>
@@ -21525,7 +21811,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40">
+      <c r="A27" t="s">
+        <v>500</v>
+      </c>
       <c r="B27" t="s">
         <v>483</v>
       </c>
@@ -21644,7 +21933,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40">
+      <c r="A28" t="s">
+        <v>500</v>
+      </c>
       <c r="B28" t="s">
         <v>483</v>
       </c>
@@ -21763,7 +22055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40">
       <c r="B29" t="s">
         <v>483</v>
       </c>
@@ -21879,7 +22171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40">
       <c r="B30" t="s">
         <v>483</v>
       </c>
@@ -21998,7 +22290,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40">
+      <c r="A31" t="s">
+        <v>500</v>
+      </c>
       <c r="B31" t="s">
         <v>483</v>
       </c>
@@ -22117,7 +22412,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
       <c r="B32" t="s">
         <v>483</v>
       </c>
@@ -22236,7 +22534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40">
       <c r="B33" t="s">
         <v>483</v>
       </c>
@@ -22352,7 +22650,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
       <c r="B34" t="s">
         <v>483</v>
       </c>
@@ -22471,7 +22772,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40">
+      <c r="A35" t="s">
+        <v>500</v>
+      </c>
       <c r="B35" t="s">
         <v>483</v>
       </c>
@@ -22590,7 +22894,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40">
+      <c r="A36" t="s">
+        <v>500</v>
+      </c>
       <c r="B36" t="s">
         <v>483</v>
       </c>
@@ -22706,7 +23013,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40">
+      <c r="A37" t="s">
+        <v>500</v>
+      </c>
       <c r="B37" t="s">
         <v>483</v>
       </c>
@@ -22822,7 +23132,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40">
+      <c r="A38" t="s">
+        <v>500</v>
+      </c>
       <c r="B38" t="s">
         <v>483</v>
       </c>
@@ -22938,7 +23251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40">
       <c r="B39" t="s">
         <v>483</v>
       </c>
@@ -23054,7 +23367,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40">
+      <c r="A40" t="s">
+        <v>500</v>
+      </c>
       <c r="B40" t="s">
         <v>483</v>
       </c>
@@ -23173,7 +23489,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40">
+      <c r="A41" t="s">
+        <v>500</v>
+      </c>
       <c r="B41" t="s">
         <v>483</v>
       </c>
@@ -23292,7 +23611,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40">
+      <c r="A42" t="s">
+        <v>500</v>
+      </c>
       <c r="B42" t="s">
         <v>483</v>
       </c>
@@ -23408,7 +23730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40">
       <c r="B43" t="s">
         <v>483</v>
       </c>
@@ -23524,7 +23846,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40">
+      <c r="A44" t="s">
+        <v>500</v>
+      </c>
       <c r="B44" t="s">
         <v>483</v>
       </c>
@@ -23643,7 +23968,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40">
+      <c r="A45" t="s">
+        <v>500</v>
+      </c>
       <c r="B45" t="s">
         <v>483</v>
       </c>
@@ -23762,7 +24090,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40">
+      <c r="A46" t="s">
+        <v>500</v>
+      </c>
       <c r="B46" t="s">
         <v>483</v>
       </c>
@@ -23878,7 +24209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40">
       <c r="B47" t="s">
         <v>483</v>
       </c>
@@ -23994,7 +24325,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40">
+      <c r="A48" t="s">
+        <v>500</v>
+      </c>
       <c r="B48" t="s">
         <v>483</v>
       </c>
@@ -24113,7 +24447,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40">
+      <c r="A49" t="s">
+        <v>500</v>
+      </c>
       <c r="B49" t="s">
         <v>483</v>
       </c>
@@ -24232,7 +24569,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40">
+      <c r="A50" t="s">
+        <v>500</v>
+      </c>
       <c r="B50" t="s">
         <v>483</v>
       </c>
@@ -24348,7 +24688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40">
       <c r="B51" t="s">
         <v>483</v>
       </c>
@@ -24464,7 +24804,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40">
+      <c r="A52" t="s">
+        <v>500</v>
+      </c>
       <c r="B52" t="s">
         <v>483</v>
       </c>
@@ -24583,7 +24926,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40">
+      <c r="A53" t="s">
+        <v>500</v>
+      </c>
       <c r="B53" t="s">
         <v>483</v>
       </c>
@@ -24702,7 +25048,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40">
+      <c r="A54" t="s">
+        <v>500</v>
+      </c>
       <c r="B54" t="s">
         <v>483</v>
       </c>
@@ -24818,7 +25167,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40">
+      <c r="A55" t="s">
+        <v>500</v>
+      </c>
       <c r="B55" t="s">
         <v>483</v>
       </c>
@@ -24934,7 +25286,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40">
+      <c r="A56" t="s">
+        <v>500</v>
+      </c>
       <c r="B56" t="s">
         <v>483</v>
       </c>
@@ -25050,7 +25405,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40">
+      <c r="A57" t="s">
+        <v>500</v>
+      </c>
       <c r="B57" t="s">
         <v>483</v>
       </c>
@@ -25166,7 +25524,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40">
+      <c r="A58" t="s">
+        <v>500</v>
+      </c>
       <c r="B58" t="s">
         <v>483</v>
       </c>
@@ -25282,7 +25643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40">
       <c r="B59" t="s">
         <v>483</v>
       </c>
@@ -25398,7 +25759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40">
       <c r="B60" t="s">
         <v>483</v>
       </c>
@@ -25514,7 +25875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40">
       <c r="B61" t="s">
         <v>483</v>
       </c>
@@ -25630,7 +25991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40">
       <c r="B62" t="s">
         <v>483</v>
       </c>
@@ -25746,7 +26107,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40">
+      <c r="A63" t="s">
+        <v>500</v>
+      </c>
       <c r="B63" t="s">
         <v>483</v>
       </c>
@@ -25862,7 +26226,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40">
+      <c r="A64" t="s">
+        <v>500</v>
+      </c>
       <c r="B64" t="s">
         <v>483</v>
       </c>
@@ -25978,7 +26345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:40">
       <c r="B65" t="s">
         <v>483</v>
       </c>
@@ -26100,12 +26467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -26116,7 +26485,7 @@
     <col min="21" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -26190,7 +26559,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
         <v>484</v>
       </c>
@@ -26258,7 +26627,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
       <c r="B3" t="s">
         <v>484</v>
       </c>
@@ -26326,7 +26698,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
       <c r="B4" t="s">
         <v>484</v>
       </c>
@@ -26394,7 +26769,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>484</v>
       </c>
@@ -26462,7 +26840,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>484</v>
       </c>
@@ -26530,7 +26911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" t="s">
         <v>484</v>
       </c>
@@ -26598,7 +26979,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
       <c r="B8" t="s">
         <v>484</v>
       </c>
@@ -26666,7 +27050,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
       <c r="B9" t="s">
         <v>484</v>
       </c>
@@ -26734,7 +27121,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>484</v>
       </c>
@@ -26802,7 +27192,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>484</v>
       </c>
@@ -26870,7 +27263,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>484</v>
       </c>
@@ -26938,7 +27334,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
       <c r="B13" t="s">
         <v>484</v>
       </c>
@@ -27006,7 +27405,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>500</v>
+      </c>
       <c r="B14" t="s">
         <v>484</v>
       </c>
@@ -27074,7 +27476,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>500</v>
+      </c>
       <c r="B15" t="s">
         <v>484</v>
       </c>
@@ -27142,7 +27547,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
       <c r="B16" t="s">
         <v>484</v>
       </c>
@@ -27210,7 +27618,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>500</v>
+      </c>
       <c r="B17" t="s">
         <v>484</v>
       </c>
@@ -27278,7 +27689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="B18" t="s">
         <v>484</v>
       </c>
@@ -27346,7 +27757,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
       <c r="B19" t="s">
         <v>484</v>
       </c>
@@ -27414,7 +27828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="B20" t="s">
         <v>484</v>
       </c>
@@ -27482,7 +27896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="B21" t="s">
         <v>484</v>
       </c>
@@ -27550,7 +27964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="B22" t="s">
         <v>484</v>
       </c>
@@ -27618,7 +28032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="B23" t="s">
         <v>484</v>
       </c>
@@ -27686,7 +28100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="B24" t="s">
         <v>484</v>
       </c>
@@ -27754,7 +28168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="B25" t="s">
         <v>484</v>
       </c>
@@ -27822,7 +28236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="B26" t="s">
         <v>484</v>
       </c>
@@ -27890,7 +28304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="B27" t="s">
         <v>484</v>
       </c>
@@ -27958,7 +28372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="B28" t="s">
         <v>484</v>
       </c>
@@ -28026,7 +28440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="B29" t="s">
         <v>484</v>
       </c>
@@ -28094,7 +28508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="B30" t="s">
         <v>484</v>
       </c>
@@ -28162,7 +28576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="B31" t="s">
         <v>484</v>
       </c>
@@ -28230,7 +28644,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
       <c r="B32" t="s">
         <v>484</v>
       </c>
@@ -28298,7 +28715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="B33" t="s">
         <v>484</v>
       </c>
@@ -28366,7 +28783,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
       <c r="B34" t="s">
         <v>484</v>
       </c>
@@ -28434,7 +28854,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
+      <c r="A35" t="s">
+        <v>500</v>
+      </c>
       <c r="B35" t="s">
         <v>484</v>
       </c>
@@ -28508,12 +28931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -28529,7 +28954,7 @@
     <col min="40" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>499</v>
       </c>
@@ -28654,7 +29079,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="B2" t="s">
         <v>485</v>
       </c>
@@ -28776,7 +29201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="B3" t="s">
         <v>485</v>
       </c>
@@ -28898,7 +29323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="B4" t="s">
         <v>485</v>
       </c>
@@ -29020,7 +29445,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
       <c r="B5" t="s">
         <v>485</v>
       </c>
@@ -29142,7 +29570,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
       <c r="B6" t="s">
         <v>485</v>
       </c>
@@ -29264,7 +29695,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
       <c r="B7" t="s">
         <v>485</v>
       </c>
@@ -29386,7 +29820,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
       <c r="B8" t="s">
         <v>485</v>
       </c>
@@ -29508,7 +29945,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
       <c r="B9" t="s">
         <v>485</v>
       </c>
@@ -29630,7 +30070,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
       <c r="B10" t="s">
         <v>485</v>
       </c>
@@ -29752,7 +30195,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
       <c r="B11" t="s">
         <v>485</v>
       </c>
@@ -29874,7 +30320,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
+        <v>500</v>
+      </c>
       <c r="B12" t="s">
         <v>485</v>
       </c>
@@ -29996,7 +30445,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
       <c r="B13" t="s">
         <v>485</v>
       </c>
@@ -30118,7 +30570,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
+      <c r="A14" t="s">
+        <v>500</v>
+      </c>
       <c r="B14" t="s">
         <v>485</v>
       </c>
@@ -30240,7 +30695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="B15" t="s">
         <v>485</v>
       </c>
@@ -30359,7 +30814,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
+      <c r="A16" t="s">
+        <v>500</v>
+      </c>
       <c r="B16" t="s">
         <v>485</v>
       </c>
@@ -30478,7 +30936,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
+      <c r="A17" t="s">
+        <v>500</v>
+      </c>
       <c r="B17" t="s">
         <v>485</v>
       </c>
@@ -30597,7 +31058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="B18" t="s">
         <v>485</v>
       </c>
@@ -30716,7 +31177,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
       <c r="B19" t="s">
         <v>485</v>
       </c>
@@ -30835,7 +31299,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
+      <c r="A20" t="s">
+        <v>500</v>
+      </c>
       <c r="B20" t="s">
         <v>485</v>
       </c>
@@ -30954,7 +31421,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
+      <c r="A21" t="s">
+        <v>500</v>
+      </c>
       <c r="B21" t="s">
         <v>485</v>
       </c>
@@ -31073,7 +31543,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
+      <c r="A22" t="s">
+        <v>500</v>
+      </c>
       <c r="B22" t="s">
         <v>485</v>
       </c>
@@ -31192,7 +31665,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
       <c r="B23" t="s">
         <v>485</v>
       </c>
@@ -31311,7 +31787,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
       <c r="B24" t="s">
         <v>485</v>
       </c>
@@ -31430,7 +31909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="B25" t="s">
         <v>485</v>
       </c>
@@ -31549,7 +32028,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
+      <c r="A26" t="s">
+        <v>500</v>
+      </c>
       <c r="B26" t="s">
         <v>485</v>
       </c>
@@ -31668,7 +32150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="B27" t="s">
         <v>485</v>
       </c>
@@ -31787,7 +32269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="B28" t="s">
         <v>485</v>
       </c>
@@ -31906,7 +32388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="B29" t="s">
         <v>485</v>
       </c>
@@ -32025,7 +32507,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="B30" t="s">
         <v>485</v>
       </c>
@@ -32144,7 +32626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="B31" t="s">
         <v>485</v>
       </c>
@@ -32263,7 +32745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="B32" t="s">
         <v>485</v>
       </c>
@@ -32382,7 +32864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="B33" t="s">
         <v>485</v>
       </c>
@@ -32501,7 +32983,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
       <c r="B34" t="s">
         <v>485</v>
       </c>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
@@ -15527,8 +15527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
@@ -2684,7 +2684,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet.xlsx
@@ -2099,132 +2099,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B0F73BE8-A08B-4ABE-8240-9B920FF87FBE}" diskRevisions="1" revisionId="56" version="6">
-  <header guid="{2A212D6C-EADD-4131-84AE-1F693E221B27}" dateTime="2013-08-06T11:14:59" maxSheetId="22" userName="m" r:id="rId1">
-    <sheetIdMap count="21">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
-      <sheetId val="21"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{171AB92A-20EC-4434-B8F7-D8D5BE522B04}" dateTime="2013-08-06T11:18:09" maxSheetId="22" userName="m" r:id="rId2" minRId="1" maxRId="41">
-    <sheetIdMap count="21">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
-      <sheetId val="21"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FBE9E226-C131-4200-B578-4534AA76BC8C}" dateTime="2013-08-06T11:32:52" maxSheetId="22" userName="m" r:id="rId3" minRId="42">
-    <sheetIdMap count="21">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
-      <sheetId val="21"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{17DA1696-BA20-49B3-A7FF-F5D69DEE2C86}" dateTime="2013-08-06T11:37:15" maxSheetId="22" userName="Matthias" r:id="rId4" minRId="43" maxRId="48">
-    <sheetIdMap count="21">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
-      <sheetId val="21"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F0E7EB1A-D11D-4BDF-A400-B66E838A8F82}" dateTime="2013-08-06T13:23:59" maxSheetId="22" userName="Matthias" r:id="rId5" minRId="49" maxRId="52">
-    <sheetIdMap count="21">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-      <sheetId val="17"/>
-      <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
-      <sheetId val="21"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{B0F73BE8-A08B-4ABE-8240-9B920FF87FBE}" diskRevisions="1" revisionId="56" version="6">
   <header guid="{B0F73BE8-A08B-4ABE-8240-9B920FF87FBE}" dateTime="2013-08-06T13:40:41" maxSheetId="22" userName="Matthias" r:id="rId6" minRId="53" maxRId="56">
     <sheetIdMap count="21">
       <sheetId val="1"/>
@@ -2251,399 +2126,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="8">
-    <oc r="G25" t="inlineStr">
-      <is>
-        <t>C OR T</t>
-      </is>
-    </oc>
-    <nc r="G25" t="inlineStr">
-      <is>
-        <t>C/T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="2" sId="9" ref="A5:XFD5" action="insertRow"/>
-  <rcc rId="3" sId="9">
-    <nc r="B5" t="inlineStr">
-      <is>
-        <t>CYP2C19</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="9">
-    <nc r="D5" t="inlineStr">
-      <is>
-        <t>*2</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="9">
-    <nc r="E5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="9">
-    <nc r="F5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="9">
-    <nc r="G5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="9">
-    <nc r="H5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="9">
-    <nc r="I5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="9">
-    <nc r="J5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="9">
-    <nc r="K5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="9">
-    <nc r="L5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="9">
-    <nc r="M5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="9">
-    <nc r="N5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="9">
-    <nc r="O5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="9">
-    <nc r="P5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="9">
-    <nc r="Q5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="9">
-    <nc r="R5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="9">
-    <nc r="S5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="9">
-    <nc r="T5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="9">
-    <nc r="U5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="9">
-    <nc r="V5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="9">
-    <nc r="W5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="9">
-    <nc r="X5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="9">
-    <nc r="Y5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="9">
-    <nc r="Z5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="9">
-    <nc r="AA5" t="inlineStr">
-      <is>
-        <t>A [tag]</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="9">
-    <nc r="AB5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="9">
-    <nc r="AC5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="9">
-    <nc r="AD5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="9">
-    <nc r="AE5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="9">
-    <nc r="AF5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="9">
-    <nc r="AG5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="9">
-    <nc r="AH5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="9">
-    <nc r="AI5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="9">
-    <nc r="AJ5" t="inlineStr">
-      <is>
-        <t>C</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="9">
-    <nc r="AK5" t="inlineStr">
-      <is>
-        <t>A</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="9">
-    <nc r="AL5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="9">
-    <nc r="AM5" t="inlineStr">
-      <is>
-        <t>T</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="9">
-    <nc r="AN5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="9">
-    <nc r="AO5" t="inlineStr">
-      <is>
-        <t>G</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="42" sId="5">
-    <nc r="A8" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="43" sId="13">
-    <oc r="A2" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A2"/>
-  </rcc>
-  <rcc rId="44" sId="13">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A3"/>
-  </rcc>
-  <rcc rId="45" sId="14">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A3"/>
-  </rcc>
-  <rcc rId="46" sId="16">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A3"/>
-  </rcc>
-  <rcc rId="47" sId="16">
-    <oc r="A4" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A4"/>
-  </rcc>
-  <rcc rId="48" sId="16">
-    <oc r="A5" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A5"/>
-  </rcc>
-  <rcv guid="{564D6D75-3362-4CAB-AFB1-BBF79E50A446}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rm rId="49" sheetId="18" source="A26" destination="A1" sourceSheetId="18"/>
-  <rcc rId="50" sId="19">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A3"/>
-  </rcc>
-  <rcc rId="51" sId="19">
-    <oc r="A4" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A4"/>
-  </rcc>
-  <rcc rId="52" sId="19">
-    <oc r="A5" t="inlineStr">
-      <is>
-        <t>disabled</t>
-      </is>
-    </oc>
-    <nc r="A5"/>
-  </rcc>
-  <rcv guid="{564D6D75-3362-4CAB-AFB1-BBF79E50A446}" action="delete"/>
-  <rcv guid="{564D6D75-3362-4CAB-AFB1-BBF79E50A446}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
